--- a/Homework/israeli_vaccination_data_analysis_start.xlsx
+++ b/Homework/israeli_vaccination_data_analysis_start.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/50c122d173c4c392/_Katz/Courses/Data Driven Organizations/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dsimbandumwe/dev/cuny/data_607/DATA607/Homework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="8_{5549D065-8479-439F-98C9-6763E114659A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F2A8279A-9AB8-4ED8-B03E-253FAAEEC729}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5359FC78-6B76-1A42-8A75-0990BBC9A0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{F3BC2D1D-D8A4-4834-AFE1-B059B15AE70E}"/>
+    <workbookView xWindow="4160" yWindow="460" windowWidth="24500" windowHeight="15800" xr2:uid="{F3BC2D1D-D8A4-4834-AFE1-B059B15AE70E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Age</t>
   </si>
@@ -93,19 +93,36 @@
   </si>
   <si>
     <t>(3) From your calculation of efficacy vs. disease, are you able to compare the rate of severe cases in unvaccinated individuals to that in vaccinated individuals?</t>
+  </si>
+  <si>
+    <t>Total Population</t>
+  </si>
+  <si>
+    <t>Fully Vax</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="6">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="0.000%"/>
+    <numFmt numFmtId="167" formatCode="0.0000%"/>
+    <numFmt numFmtId="168" formatCode="0.000000000000000%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -126,6 +143,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -250,97 +274,110 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -655,168 +692,206 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12" style="14" customWidth="1"/>
-    <col min="2" max="6" width="18.59765625" style="14" customWidth="1"/>
-    <col min="7" max="16384" width="9.06640625" style="14"/>
+    <col min="1" max="1" width="12" style="12" customWidth="1"/>
+    <col min="2" max="6" width="18.6640625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="9" style="12"/>
+    <col min="8" max="8" width="21" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="31"/>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="I2" s="25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="19">
         <v>1116834</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="20">
         <v>3501118</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="21">
         <v>43</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="21">
         <v>11</v>
       </c>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="F3" s="6"/>
+      <c r="I3" s="26">
+        <f>B3+C3+B5+C5</f>
+        <v>6937546</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="7">
         <v>0.23300000000000001</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="8">
         <f>0.73</f>
         <v>0.73</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="22">
         <v>186078</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="23">
         <v>2133516</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="24">
         <v>171</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="24">
         <v>290</v>
       </c>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="B6" s="15">
+      <c r="F5" s="11"/>
+      <c r="H5" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="13">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="14">
         <v>0.90400000000000003</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="16"/>
+      <c r="I6" s="17">
+        <f>C3+C5</f>
+        <v>5634634</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="20"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="34">
+        <f>(D3+D5)/(B3+B5)*100000</f>
+        <v>16.424747028195306</v>
+      </c>
+      <c r="E8" s="34">
+        <f>(E3+E5)/(C3+C5)*100000</f>
+        <v>5.3419618736549701</v>
+      </c>
+      <c r="F8" s="18"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A10" s="14" t="s">
+      <c r="D9" s="12">
+        <f>(D3+D5)/(B3+B5)</f>
+        <v>1.6424747028195304E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="B11" s="19" t="s">
+      <c r="H10" s="27">
+        <f>(E3+E5)/100000</f>
+        <v>3.0100000000000001E-3</v>
+      </c>
+      <c r="I10" s="28">
+        <f>(D3+D5)/100000</f>
+        <v>2.14E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="17" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="B12" s="14" t="s">
+      <c r="H11" s="29">
+        <f>1-(H10/I10)</f>
+        <v>-0.40654205607476634</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A14" s="14" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A15" s="14" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="28" t="s">
+    <row r="16" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B20" s="19"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">
